--- a/010_Fiori_login/Default.xlsx
+++ b/010_Fiori_login/Default.xlsx
@@ -523,10 +523,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="11.34375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7890625" style="1" bestFit="1" customWidth="1"/>
@@ -534,7 +534,7 @@
     <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
